--- a/data/financial_statements/sofp/OGN.xlsx
+++ b/data/financial_statements/sofp/OGN.xlsx
@@ -14,9 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +173,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +225,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,51 +532,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43465</v>
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>499000000</v>
@@ -574,23 +607,23 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>1450000000</v>
+        <v>1440000000</v>
       </c>
       <c r="C3">
-        <v>1499000000</v>
+        <v>1490000000</v>
       </c>
       <c r="D3">
-        <v>1348000000</v>
+        <v>1322000000</v>
       </c>
       <c r="E3">
-        <v>1512000000</v>
+        <v>1382000000</v>
       </c>
       <c r="F3">
-        <v>1510000000</v>
+        <v>1498000000</v>
       </c>
       <c r="G3">
         <v>1507000000</v>
@@ -606,8 +639,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>879000000</v>
@@ -638,23 +671,23 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>764000000</v>
+        <v>774000000</v>
       </c>
       <c r="C5">
-        <v>780000000</v>
+        <v>789000000</v>
       </c>
       <c r="D5">
-        <v>731000000</v>
+        <v>757000000</v>
       </c>
       <c r="E5">
-        <v>596000000</v>
+        <v>726000000</v>
       </c>
       <c r="F5">
-        <v>893000000</v>
+        <v>905000000</v>
       </c>
       <c r="G5">
         <v>803000000</v>
@@ -670,8 +703,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>3592000000</v>
@@ -702,8 +735,8 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>906000000</v>
@@ -715,10 +748,10 @@
         <v>970000000</v>
       </c>
       <c r="E7">
-        <v>1203000000</v>
+        <v>973000000</v>
       </c>
       <c r="F7">
-        <v>1255000000</v>
+        <v>967000000</v>
       </c>
       <c r="G7">
         <v>976000000</v>
@@ -734,8 +767,8 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>5273000000</v>
@@ -778,8 +811,8 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>666000000</v>
@@ -791,10 +824,10 @@
         <v>640000000</v>
       </c>
       <c r="E9">
-        <v>464000000</v>
+        <v>694000000</v>
       </c>
       <c r="F9">
-        <v>465000000</v>
+        <v>753000000</v>
       </c>
       <c r="G9">
         <v>707000000</v>
@@ -810,8 +843,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>6845000000</v>
@@ -842,8 +875,8 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <v>10437000000</v>
@@ -886,20 +919,20 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>1004000000</v>
+        <v>1028000000</v>
       </c>
       <c r="C12">
         <v>1130000000</v>
       </c>
       <c r="D12">
-        <v>1058000000</v>
+        <v>1081000000</v>
       </c>
       <c r="E12">
-        <v>1361000000</v>
+        <v>1382000000</v>
       </c>
       <c r="F12">
         <v>1673000000</v>
@@ -918,8 +951,8 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1075000000</v>
@@ -950,8 +983,8 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>8000000</v>
@@ -963,10 +996,10 @@
         <v>9000000</v>
       </c>
       <c r="E14">
-        <v>55000000</v>
+        <v>9000000</v>
       </c>
       <c r="F14">
-        <v>106000000</v>
+        <v>39000000</v>
       </c>
       <c r="G14">
         <v>39000000</v>
@@ -979,8 +1012,8 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -999,8 +1032,8 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
         <v>217000000</v>
@@ -1043,8 +1076,8 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1099000000</v>
@@ -1075,8 +1108,8 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B18">
         <v>2328000000</v>
@@ -1107,8 +1140,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>8691000000</v>
@@ -1120,10 +1153,10 @@
         <v>9085000000</v>
       </c>
       <c r="E19">
-        <v>9309000000</v>
+        <v>9125000000</v>
       </c>
       <c r="F19">
-        <v>9480000000</v>
+        <v>9259000000</v>
       </c>
       <c r="G19">
         <v>9309000000</v>
@@ -1136,8 +1169,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1156,8 +1189,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B21">
         <v>43000000</v>
@@ -1185,8 +1218,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1205,8 +1238,8 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B23">
         <v>441000000</v>
@@ -1218,10 +1251,10 @@
         <v>454000000</v>
       </c>
       <c r="E23">
-        <v>279000000</v>
+        <v>463000000</v>
       </c>
       <c r="F23">
-        <v>285000000</v>
+        <v>506000000</v>
       </c>
       <c r="G23">
         <v>487000000</v>
@@ -1237,8 +1270,8 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B24">
         <v>9175000000</v>
@@ -1269,8 +1302,8 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B25">
         <v>11503000000</v>
@@ -1313,8 +1346,8 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1342,8 +1375,8 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1362,8 +1395,8 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B28">
         <v>3000000</v>
@@ -1406,8 +1439,8 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B29">
         <v>-383000000</v>
@@ -1429,8 +1462,8 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1449,8 +1482,8 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1478,8 +1511,8 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B32">
         <v>-1066000000</v>
@@ -1510,8 +1543,8 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B33">
         <v>-1066000000</v>
@@ -1554,8 +1587,8 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B34">
         <v>10437000000</v>
@@ -1598,8 +1631,8 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B35">
         <v>254364000</v>
@@ -1624,8 +1657,8 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B36">
         <v>-6339000000</v>
@@ -1656,8 +1689,8 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B37">
         <v>8200000000</v>
@@ -1669,10 +1702,10 @@
         <v>8400000000</v>
       </c>
       <c r="E37">
-        <v>8627000000</v>
+        <v>8397000000</v>
       </c>
       <c r="F37">
-        <v>8578000000</v>
+        <v>8290000000</v>
       </c>
       <c r="G37">
         <v>8618000000</v>
@@ -1688,8 +1721,8 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B38">
         <v>8699000000</v>
@@ -1701,10 +1734,10 @@
         <v>9094000000</v>
       </c>
       <c r="E38">
-        <v>9364000000</v>
+        <v>9134000000</v>
       </c>
       <c r="F38">
-        <v>9586000000</v>
+        <v>9298000000</v>
       </c>
       <c r="G38">
         <v>9348000000</v>
